--- a/Data/raw/GST SALES OF POPLIN.xlsx
+++ b/Data/raw/GST SALES OF POPLIN.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IITM\BDM\Data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179E273A-AD52-4693-918C-E58C04A2CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10035"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COLOUR POPLIN CLOTH" sheetId="1" r:id="rId1"/>
+    <sheet name="Debt Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>R.G. NAGAPPA MUDALIAR &amp; SONS</t>
   </si>
@@ -572,18 +592,115 @@
   </si>
   <si>
     <t>GST</t>
+  </si>
+  <si>
+    <t>WHR</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>IRTC</t>
+  </si>
+  <si>
+    <t>EFII</t>
+  </si>
+  <si>
+    <t>RICK</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>TWIN</t>
+  </si>
+  <si>
+    <t>FYX</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>PLOW</t>
+  </si>
+  <si>
+    <t>MHK</t>
+  </si>
+  <si>
+    <t>MMDMR</t>
+  </si>
+  <si>
+    <t>VUSE</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>VEAC</t>
+  </si>
+  <si>
+    <t>YEXT</t>
+  </si>
+  <si>
+    <t>MEDP</t>
+  </si>
+  <si>
+    <t>TRK</t>
+  </si>
+  <si>
+    <t>FLIR</t>
+  </si>
+  <si>
+    <t>PERY</t>
+  </si>
+  <si>
+    <t>AGFSW</t>
+  </si>
+  <si>
+    <t>ORIG</t>
+  </si>
+  <si>
+    <t>IBKCO</t>
+  </si>
+  <si>
+    <t>SQNS</t>
+  </si>
+  <si>
+    <t>WCST</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>MEOH</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>TRCO</t>
+  </si>
+  <si>
+    <t>Date of Return</t>
+  </si>
+  <si>
+    <t>Returned Money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;&quot;0"/>
     <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="[$₹-4009]\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -688,9 +805,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -710,19 +827,7 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -735,9 +840,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -750,17 +852,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -770,6 +869,23 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -780,6 +896,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -828,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,9 +980,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,6 +1032,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1071,173 +1224,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44287</v>
       </c>
@@ -1250,26 +1403,26 @@
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>821.2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="9">
         <f>SUM(G11/E11)</f>
         <v>45.999999999999993</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>37775.199999999997</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <f>SUM(G11*5/100)</f>
         <v>1888.76</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
         <f>SUM(G11+H11)</f>
         <v>39663.96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44287</v>
       </c>
@@ -1282,26 +1435,26 @@
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>2419.1999999999998</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="9">
         <f t="shared" ref="F12:F75" si="0">SUM(G12/E12)</f>
         <v>46</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>111283.2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <f t="shared" ref="H12:H75" si="1">SUM(G12*5/100)</f>
         <v>5564.16</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="18">
         <f t="shared" ref="I12:I75" si="2">SUM(G12+H12)</f>
         <v>116847.36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44287</v>
       </c>
@@ -1314,26 +1467,26 @@
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>3235</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>148810</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>7440.5</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="18">
         <f t="shared" si="2"/>
         <v>156250.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44287</v>
       </c>
@@ -1346,26 +1499,26 @@
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>1626.9</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>74837.399999999994</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>3741.87</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
         <f t="shared" si="2"/>
         <v>78579.26999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44288</v>
       </c>
@@ -1378,26 +1531,26 @@
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>1596.6</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>73443.600000000006</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>3672.18</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="18">
         <f t="shared" si="2"/>
         <v>77115.78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44289</v>
       </c>
@@ -1410,26 +1563,26 @@
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <v>1628.4</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>74906.399999999994</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>3745.32</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="18">
         <f t="shared" si="2"/>
         <v>78651.72</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44289</v>
       </c>
@@ -1442,26 +1595,26 @@
       <c r="D17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>799</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>36754</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>1837.7</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="18">
         <f t="shared" si="2"/>
         <v>38591.699999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44293</v>
       </c>
@@ -1474,26 +1627,26 @@
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>807.4</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>37140.400000000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>1857.02</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <f t="shared" si="2"/>
         <v>38997.42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44294</v>
       </c>
@@ -1506,26 +1659,26 @@
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>790</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>36340</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="18">
         <f t="shared" si="2"/>
         <v>38157</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44294</v>
       </c>
@@ -1538,26 +1691,26 @@
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <v>3221.7</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="7">
         <v>148198.20000000001</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>7409.91</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="18">
         <f t="shared" si="2"/>
         <v>155608.11000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44295</v>
       </c>
@@ -1570,26 +1723,26 @@
       <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>796.5</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>36639</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>1831.95</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="18">
         <f t="shared" si="2"/>
         <v>38470.949999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44301</v>
       </c>
@@ -1602,26 +1755,26 @@
       <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>1592.6</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>73259.600000000006</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>3662.98</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="18">
         <f t="shared" si="2"/>
         <v>76922.58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44301</v>
       </c>
@@ -1634,26 +1787,26 @@
       <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>2074.6</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>95431.6</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>4771.58</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="18">
         <f t="shared" si="2"/>
         <v>100203.18000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44306</v>
       </c>
@@ -1666,26 +1819,26 @@
       <c r="D24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <v>3230</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="7">
         <v>148580</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>7429</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="18">
         <f t="shared" si="2"/>
         <v>156009</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44310</v>
       </c>
@@ -1698,26 +1851,26 @@
       <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="10">
         <v>2409.6999999999998</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>110846.2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>5542.31</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="18">
         <f t="shared" si="2"/>
         <v>116388.51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44310</v>
       </c>
@@ -1730,26 +1883,26 @@
       <c r="D26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="10">
         <v>2399.3000000000002</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>43.999999999999993</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="7">
         <v>105569.2</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>5278.46</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="18">
         <f t="shared" si="2"/>
         <v>110847.66</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44314</v>
       </c>
@@ -1762,26 +1915,26 @@
       <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="10">
         <v>2423.3000000000002</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="7">
         <v>111471.8</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>5573.59</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="18">
         <f t="shared" si="2"/>
         <v>117045.39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44314</v>
       </c>
@@ -1794,26 +1947,26 @@
       <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="10">
         <v>2405.8000000000002</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="7">
         <v>110666.8</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
         <v>5533.34</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="18">
         <f t="shared" si="2"/>
         <v>116200.14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44316</v>
       </c>
@@ -1826,26 +1979,26 @@
       <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="10">
         <v>1601.1</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>73650.600000000006</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <f t="shared" si="1"/>
         <v>3682.53</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="18">
         <f t="shared" si="2"/>
         <v>77333.13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44320</v>
       </c>
@@ -1858,26 +2011,26 @@
       <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="10">
         <v>2413</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="7">
         <v>110998</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>5549.9</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="18">
         <f t="shared" si="2"/>
         <v>116547.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44320</v>
       </c>
@@ -1890,26 +2043,26 @@
       <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="10">
         <v>2390</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>109940</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>5497</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="18">
         <f t="shared" si="2"/>
         <v>115437</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44320</v>
       </c>
@@ -1922,26 +2075,26 @@
       <c r="D32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="10">
         <v>2399.6999999999998</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="7">
         <v>110386.2</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="7">
         <f t="shared" si="1"/>
         <v>5519.31</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="18">
         <f t="shared" si="2"/>
         <v>115905.51</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44378</v>
       </c>
@@ -1954,26 +2107,26 @@
       <c r="D33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="10">
         <v>3191.3</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>146799.79999999999</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <f t="shared" si="1"/>
         <v>7339.99</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="18">
         <f t="shared" si="2"/>
         <v>154139.78999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44378</v>
       </c>
@@ -1986,26 +2139,26 @@
       <c r="D34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="10">
         <v>1593.4</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="7">
         <v>73296.399999999994</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>3664.82</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="18">
         <f t="shared" si="2"/>
         <v>76961.22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44378</v>
       </c>
@@ -2018,26 +2171,26 @@
       <c r="D35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="10">
         <v>1614.1</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="7">
         <v>74248.600000000006</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>3712.43</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="18">
         <f t="shared" si="2"/>
         <v>77961.03</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44378</v>
       </c>
@@ -2050,26 +2203,26 @@
       <c r="D36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="10">
         <v>1599</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="7">
         <v>73554</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="7">
         <f t="shared" si="1"/>
         <v>3677.7</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="18">
         <f t="shared" si="2"/>
         <v>77231.7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44378</v>
       </c>
@@ -2082,26 +2235,26 @@
       <c r="D37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="10">
         <v>1998.9</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="7">
         <v>91949.4</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="7">
         <f t="shared" si="1"/>
         <v>4597.47</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="18">
         <f t="shared" si="2"/>
         <v>96546.87</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44378</v>
       </c>
@@ -2114,26 +2267,26 @@
       <c r="D38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="10">
         <v>1600.4</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="7">
         <v>73618.399999999994</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="7">
         <f t="shared" si="1"/>
         <v>3680.92</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="18">
         <f t="shared" si="2"/>
         <v>77299.319999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44380</v>
       </c>
@@ -2146,26 +2299,26 @@
       <c r="D39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="10">
         <v>2399.1999999999998</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="7">
         <v>110363.2</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <f t="shared" si="1"/>
         <v>5518.16</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="18">
         <f t="shared" si="2"/>
         <v>115881.36</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44382</v>
       </c>
@@ -2178,26 +2331,26 @@
       <c r="D40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="10">
         <v>3198.2</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="7">
         <v>147117.20000000001</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <f t="shared" si="1"/>
         <v>7355.86</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="18">
         <f t="shared" si="2"/>
         <v>154473.06</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44385</v>
       </c>
@@ -2210,26 +2363,26 @@
       <c r="D41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="10">
         <v>1623.1</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="7">
         <v>74662.600000000006</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <f t="shared" si="1"/>
         <v>3733.13</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="18">
         <f t="shared" si="2"/>
         <v>78395.73000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44385</v>
       </c>
@@ -2242,26 +2395,26 @@
       <c r="D42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="10">
         <v>3180.7</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="7">
         <v>146312.20000000001</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="7">
         <f t="shared" si="1"/>
         <v>7315.61</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="18">
         <f t="shared" si="2"/>
         <v>153627.81</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44386</v>
       </c>
@@ -2274,26 +2427,26 @@
       <c r="D43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="10">
         <v>433.2</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="7">
         <v>19927.2</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="7">
         <f t="shared" si="1"/>
         <v>996.36</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="18">
         <f t="shared" si="2"/>
         <v>20923.560000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44389</v>
       </c>
@@ -2306,26 +2459,26 @@
       <c r="D44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="10">
         <v>3240.4</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="7">
         <v>149058.4</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="7">
         <f t="shared" si="1"/>
         <v>7452.92</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="18">
         <f t="shared" si="2"/>
         <v>156511.32</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44390</v>
       </c>
@@ -2338,26 +2491,26 @@
       <c r="D45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="10">
         <v>2424.9</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="7">
         <v>111545.4</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="7">
         <f t="shared" si="1"/>
         <v>5577.27</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="18">
         <f t="shared" si="2"/>
         <v>117122.67</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44390</v>
       </c>
@@ -2370,26 +2523,26 @@
       <c r="D46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="10">
         <v>799.6</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="7">
         <v>36781.599999999999</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="7">
         <f t="shared" si="1"/>
         <v>1839.08</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="18">
         <f t="shared" si="2"/>
         <v>38620.68</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44392</v>
       </c>
@@ -2402,26 +2555,26 @@
       <c r="D47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="10">
         <v>3206</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="7">
         <v>147476</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="7">
         <f t="shared" si="1"/>
         <v>7373.8</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="18">
         <f t="shared" si="2"/>
         <v>154849.79999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44394</v>
       </c>
@@ -2434,26 +2587,26 @@
       <c r="D48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="10">
         <v>1594.9</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="7">
         <v>73365.399999999994</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="7">
         <f t="shared" si="1"/>
         <v>3668.27</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="18">
         <f t="shared" si="2"/>
         <v>77033.67</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44394</v>
       </c>
@@ -2466,26 +2619,26 @@
       <c r="D49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="10">
         <v>1610.5</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="7">
         <v>74083</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="7">
         <f t="shared" si="1"/>
         <v>3704.15</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="18">
         <f t="shared" si="2"/>
         <v>77787.149999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44397</v>
       </c>
@@ -2498,26 +2651,26 @@
       <c r="D50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="10">
         <v>474.5</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="7">
         <v>21827</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="7">
         <f t="shared" si="1"/>
         <v>1091.3499999999999</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="18">
         <f t="shared" si="2"/>
         <v>22918.35</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44398</v>
       </c>
@@ -2530,26 +2683,26 @@
       <c r="D51" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="10">
         <v>3204.8</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="9">
         <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="7">
         <v>147420.79999999999</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="7">
         <f t="shared" si="1"/>
         <v>7371.04</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="18">
         <f t="shared" si="2"/>
         <v>154791.84</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44398</v>
       </c>
@@ -2562,26 +2715,26 @@
       <c r="D52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="10">
         <v>2405.1999999999998</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="7">
         <v>110639.2</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="7">
         <f t="shared" si="1"/>
         <v>5531.96</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="18">
         <f t="shared" si="2"/>
         <v>116171.16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44398</v>
       </c>
@@ -2594,26 +2747,26 @@
       <c r="D53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="10">
         <v>423.2</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="7">
         <v>19467.2</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="7">
         <f t="shared" si="1"/>
         <v>973.36</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="18">
         <f t="shared" si="2"/>
         <v>20440.560000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44398</v>
       </c>
@@ -2626,26 +2779,26 @@
       <c r="D54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="10">
         <v>2418</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="7">
         <v>111228</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="7">
         <f t="shared" si="1"/>
         <v>5561.4</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="18">
         <f t="shared" si="2"/>
         <v>116789.4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44400</v>
       </c>
@@ -2658,26 +2811,26 @@
       <c r="D55" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="10">
         <v>2414.5</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="7">
         <v>111067</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="7">
         <f t="shared" si="1"/>
         <v>5553.35</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="18">
         <f t="shared" si="2"/>
         <v>116620.35</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44403</v>
       </c>
@@ -2690,26 +2843,26 @@
       <c r="D56" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="10">
         <v>3239.7</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="7">
         <v>149026.20000000001</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="7">
         <f t="shared" si="1"/>
         <v>7451.31</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="18">
         <f t="shared" si="2"/>
         <v>156477.51</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44404</v>
       </c>
@@ -2722,26 +2875,26 @@
       <c r="D57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="10">
         <v>1627.1</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="7">
         <v>74846.600000000006</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="7">
         <f t="shared" si="1"/>
         <v>3742.33</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="18">
         <f t="shared" si="2"/>
         <v>78588.930000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44405</v>
       </c>
@@ -2754,26 +2907,26 @@
       <c r="D58" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="10">
         <v>3246.2</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="7">
         <v>149325.20000000001</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="7">
         <f t="shared" si="1"/>
         <v>7466.26</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="18">
         <f t="shared" si="2"/>
         <v>156791.46000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44407</v>
       </c>
@@ -2786,26 +2939,26 @@
       <c r="D59" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="10">
         <v>3397.2</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="7">
         <v>156271.20000000001</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="7">
         <f t="shared" si="1"/>
         <v>7813.56</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="18">
         <f t="shared" si="2"/>
         <v>164084.76</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44412</v>
       </c>
@@ -2818,26 +2971,26 @@
       <c r="D60" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="10">
         <v>820.1</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="7">
         <v>37724.6</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="7">
         <f t="shared" si="1"/>
         <v>1886.23</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="18">
         <f t="shared" si="2"/>
         <v>39610.83</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44412</v>
       </c>
@@ -2850,26 +3003,26 @@
       <c r="D61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="10">
         <v>805.4</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="7">
         <v>37048.400000000001</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="7">
         <f t="shared" si="1"/>
         <v>1852.42</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="18">
         <f t="shared" si="2"/>
         <v>38900.82</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44414</v>
       </c>
@@ -2882,26 +3035,26 @@
       <c r="D62" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="10">
         <v>1770.6</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="7">
         <v>81447.600000000006</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="7">
         <f t="shared" si="1"/>
         <v>4072.38</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="18">
         <f t="shared" si="2"/>
         <v>85519.98000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44417</v>
       </c>
@@ -2914,26 +3067,26 @@
       <c r="D63" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="10">
         <v>3205.4</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="7">
         <v>147448.4</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="7">
         <f t="shared" si="1"/>
         <v>7372.42</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="18">
         <f t="shared" si="2"/>
         <v>154820.82</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44417</v>
       </c>
@@ -2946,26 +3099,26 @@
       <c r="D64" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="10">
         <v>821.3</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="7">
         <v>37779.800000000003</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="7">
         <f t="shared" si="1"/>
         <v>1888.99</v>
       </c>
-      <c r="I64" s="24">
+      <c r="I64" s="18">
         <f t="shared" si="2"/>
         <v>39668.79</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44418</v>
       </c>
@@ -2978,26 +3131,26 @@
       <c r="D65" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="10">
         <v>2426.5</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="7">
         <v>111619</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="7">
         <f t="shared" si="1"/>
         <v>5580.95</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I65" s="18">
         <f t="shared" si="2"/>
         <v>117199.95</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44420</v>
       </c>
@@ -3010,26 +3163,26 @@
       <c r="D66" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="10">
         <v>3275</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="7">
         <v>150650</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="7">
         <f t="shared" si="1"/>
         <v>7532.5</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="18">
         <f t="shared" si="2"/>
         <v>158182.5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44421</v>
       </c>
@@ -3042,26 +3195,26 @@
       <c r="D67" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="10">
         <v>3230</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="7">
         <v>148580</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="7">
         <f t="shared" si="1"/>
         <v>7429</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="18">
         <f t="shared" si="2"/>
         <v>156009</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44421</v>
       </c>
@@ -3074,26 +3227,26 @@
       <c r="D68" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="10">
         <v>1628.2</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="7">
         <v>74897.2</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="7">
         <f t="shared" si="1"/>
         <v>3744.86</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I68" s="18">
         <f t="shared" si="2"/>
         <v>78642.06</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44421</v>
       </c>
@@ -3106,26 +3259,26 @@
       <c r="D69" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="10">
         <v>2437.5</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="7">
         <v>112125</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="7">
         <f t="shared" si="1"/>
         <v>5606.25</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="18">
         <f t="shared" si="2"/>
         <v>117731.25</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44425</v>
       </c>
@@ -3138,26 +3291,26 @@
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="10">
         <v>2416.1999999999998</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="7">
         <v>111145.2</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="7">
         <f t="shared" si="1"/>
         <v>5557.26</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I70" s="18">
         <f t="shared" si="2"/>
         <v>116702.45999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44426</v>
       </c>
@@ -3170,26 +3323,26 @@
       <c r="D71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="10">
         <v>3227.1</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="7">
         <v>148446.6</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="7">
         <f t="shared" si="1"/>
         <v>7422.33</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="18">
         <f t="shared" si="2"/>
         <v>155868.93</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44426</v>
       </c>
@@ -3202,26 +3355,26 @@
       <c r="D72" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="10">
         <v>3259</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="7">
         <v>149914</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="7">
         <f t="shared" si="1"/>
         <v>7495.7</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="18">
         <f t="shared" si="2"/>
         <v>157409.70000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44429</v>
       </c>
@@ -3234,26 +3387,26 @@
       <c r="D73" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="10">
         <v>3206.2</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="9">
         <f t="shared" si="0"/>
         <v>46.000000000000007</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="7">
         <v>147485.20000000001</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="7">
         <f t="shared" si="1"/>
         <v>7374.26</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="18">
         <f t="shared" si="2"/>
         <v>154859.46000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44432</v>
       </c>
@@ -3266,26 +3419,26 @@
       <c r="D74" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="10">
         <v>3236.4</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="7">
         <v>148874.4</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="7">
         <f t="shared" si="1"/>
         <v>7443.72</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="18">
         <f t="shared" si="2"/>
         <v>156318.12</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44434</v>
       </c>
@@ -3298,26 +3451,26 @@
       <c r="D75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="10">
         <v>2427.6999999999998</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="7">
         <v>111674.2</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="7">
         <f t="shared" si="1"/>
         <v>5583.71</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I75" s="18">
         <f t="shared" si="2"/>
         <v>117257.91</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44438</v>
       </c>
@@ -3330,26 +3483,26 @@
       <c r="D76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="10">
         <v>3229.5</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="9">
         <f t="shared" ref="F76:F139" si="3">SUM(G76/E76)</f>
         <v>47</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="7">
         <v>151786.5</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="7">
         <f t="shared" ref="H76:H139" si="4">SUM(G76*5/100)</f>
         <v>7589.3249999999998</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="18">
         <f t="shared" ref="I76:I139" si="5">SUM(G76+H76)</f>
         <v>159375.82500000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44439</v>
       </c>
@@ -3362,26 +3515,26 @@
       <c r="D77" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="10">
         <v>3251.5</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="7">
         <v>152820.5</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="7">
         <f t="shared" si="4"/>
         <v>7641.0249999999996</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I77" s="18">
         <f t="shared" si="5"/>
         <v>160461.52499999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44440</v>
       </c>
@@ -3394,26 +3547,26 @@
       <c r="D78" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="10">
         <v>1634</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="7">
         <v>76798</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="7">
         <f t="shared" si="4"/>
         <v>3839.9</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I78" s="18">
         <f t="shared" si="5"/>
         <v>80637.899999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44440</v>
       </c>
@@ -3426,26 +3579,26 @@
       <c r="D79" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="10">
         <v>1617</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="7">
         <v>75999</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="7">
         <f t="shared" si="4"/>
         <v>3799.95</v>
       </c>
-      <c r="I79" s="24">
+      <c r="I79" s="18">
         <f t="shared" si="5"/>
         <v>79798.95</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44441</v>
       </c>
@@ -3458,26 +3611,26 @@
       <c r="D80" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="10">
         <v>2427.4</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="7">
         <v>114087.8</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="7">
         <f t="shared" si="4"/>
         <v>5704.39</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="18">
         <f t="shared" si="5"/>
         <v>119792.19</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44442</v>
       </c>
@@ -3490,26 +3643,26 @@
       <c r="D81" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="10">
         <v>2429</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="7">
         <v>114163</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="7">
         <f t="shared" si="4"/>
         <v>5708.15</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I81" s="18">
         <f t="shared" si="5"/>
         <v>119871.15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44442</v>
       </c>
@@ -3522,26 +3675,26 @@
       <c r="D82" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="10">
         <v>1632.2</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="7">
         <v>76713.399999999994</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="7">
         <f t="shared" si="4"/>
         <v>3835.67</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I82" s="18">
         <f t="shared" si="5"/>
         <v>80549.069999999992</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44445</v>
       </c>
@@ -3554,26 +3707,26 @@
       <c r="D83" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="10">
         <v>812.9</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="7">
         <v>38206.300000000003</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="7">
         <f t="shared" si="4"/>
         <v>1910.3150000000001</v>
       </c>
-      <c r="I83" s="24">
+      <c r="I83" s="18">
         <f t="shared" si="5"/>
         <v>40116.615000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44446</v>
       </c>
@@ -3586,26 +3739,26 @@
       <c r="D84" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="10">
         <v>4839.3999999999996</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="7">
         <v>227451.8</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="7">
         <f t="shared" si="4"/>
         <v>11372.59</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="18">
         <f t="shared" si="5"/>
         <v>238824.38999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44452</v>
       </c>
@@ -3618,26 +3771,26 @@
       <c r="D85" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="10">
         <v>1621.7</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="7">
         <v>76219.899999999994</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="7">
         <f t="shared" si="4"/>
         <v>3810.9949999999999</v>
       </c>
-      <c r="I85" s="24">
+      <c r="I85" s="18">
         <f t="shared" si="5"/>
         <v>80030.89499999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44452</v>
       </c>
@@ -3650,26 +3803,26 @@
       <c r="D86" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="10">
         <v>820.5</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="7">
         <v>38563.5</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="7">
         <f t="shared" si="4"/>
         <v>1928.175</v>
       </c>
-      <c r="I86" s="24">
+      <c r="I86" s="18">
         <f t="shared" si="5"/>
         <v>40491.675000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44453</v>
       </c>
@@ -3682,26 +3835,26 @@
       <c r="D87" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="10">
         <v>2454.3000000000002</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="7">
         <v>115352.1</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="7">
         <f t="shared" si="4"/>
         <v>5767.6049999999996</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I87" s="18">
         <f t="shared" si="5"/>
         <v>121119.705</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44453</v>
       </c>
@@ -3714,26 +3867,26 @@
       <c r="D88" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="10">
         <v>3269</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="7">
         <v>153643</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="7">
         <f t="shared" si="4"/>
         <v>7682.15</v>
       </c>
-      <c r="I88" s="24">
+      <c r="I88" s="18">
         <f t="shared" si="5"/>
         <v>161325.15</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44454</v>
       </c>
@@ -3746,26 +3899,26 @@
       <c r="D89" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="10">
         <v>1626</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="7">
         <v>76422</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="7">
         <f t="shared" si="4"/>
         <v>3821.1</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I89" s="18">
         <f t="shared" si="5"/>
         <v>80243.100000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44455</v>
       </c>
@@ -3778,26 +3931,26 @@
       <c r="D90" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="10">
         <v>4925</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="7">
         <v>231475</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="7">
         <f t="shared" si="4"/>
         <v>11573.75</v>
       </c>
-      <c r="I90" s="24">
+      <c r="I90" s="18">
         <f t="shared" si="5"/>
         <v>243048.75</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44456</v>
       </c>
@@ -3810,26 +3963,26 @@
       <c r="D91" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="10">
         <v>2431.6999999999998</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="7">
         <v>114289.9</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91" s="7">
         <f t="shared" si="4"/>
         <v>5714.4949999999999</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I91" s="18">
         <f t="shared" si="5"/>
         <v>120004.39499999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44456</v>
       </c>
@@ -3842,26 +3995,26 @@
       <c r="D92" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="10">
         <v>1615.7</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="7">
         <v>75937.899999999994</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="7">
         <f t="shared" si="4"/>
         <v>3796.895</v>
       </c>
-      <c r="I92" s="24">
+      <c r="I92" s="18">
         <f t="shared" si="5"/>
         <v>79734.794999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44459</v>
       </c>
@@ -3874,26 +4027,26 @@
       <c r="D93" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="10">
         <v>859</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="7">
         <v>40373</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93" s="7">
         <f t="shared" si="4"/>
         <v>2018.65</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="18">
         <f t="shared" si="5"/>
         <v>42391.65</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44460</v>
       </c>
@@ -3906,26 +4059,26 @@
       <c r="D94" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="10">
         <v>3235.9</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="7">
         <v>152087.29999999999</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="7">
         <f t="shared" si="4"/>
         <v>7604.3649999999998</v>
       </c>
-      <c r="I94" s="24">
+      <c r="I94" s="18">
         <f t="shared" si="5"/>
         <v>159691.66499999998</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44461</v>
       </c>
@@ -3938,26 +4091,26 @@
       <c r="D95" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="10">
         <v>1631.6</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="7">
         <v>76685.2</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="7">
         <f t="shared" si="4"/>
         <v>3834.26</v>
       </c>
-      <c r="I95" s="24">
+      <c r="I95" s="18">
         <f t="shared" si="5"/>
         <v>80519.459999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44461</v>
       </c>
@@ -3970,26 +4123,26 @@
       <c r="D96" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="10">
         <v>1617.5</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="7">
         <v>76022.5</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="7">
         <f t="shared" si="4"/>
         <v>3801.125</v>
       </c>
-      <c r="I96" s="24">
+      <c r="I96" s="18">
         <f t="shared" si="5"/>
         <v>79823.625</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44462</v>
       </c>
@@ -4002,26 +4155,26 @@
       <c r="D97" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="10">
         <v>4886.1000000000004</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="7">
         <v>229646.7</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="7">
         <f t="shared" si="4"/>
         <v>11482.334999999999</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I97" s="18">
         <f t="shared" si="5"/>
         <v>241129.035</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44463</v>
       </c>
@@ -4034,26 +4187,26 @@
       <c r="D98" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="10">
         <v>800</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="9">
         <f t="shared" si="3"/>
         <v>46.5</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="7">
         <v>37200</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="7">
         <f t="shared" si="4"/>
         <v>1860</v>
       </c>
-      <c r="I98" s="24">
+      <c r="I98" s="18">
         <f t="shared" si="5"/>
         <v>39060</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44464</v>
       </c>
@@ -4066,26 +4219,26 @@
       <c r="D99" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="10">
         <v>261.8</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="7">
         <v>12304.6</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="7">
         <f t="shared" si="4"/>
         <v>615.23</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I99" s="18">
         <f t="shared" si="5"/>
         <v>12919.83</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44466</v>
       </c>
@@ -4098,26 +4251,26 @@
       <c r="D100" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="10">
         <v>1617.7</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="7">
         <v>76031.899999999994</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100" s="7">
         <f t="shared" si="4"/>
         <v>3801.5949999999998</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="18">
         <f t="shared" si="5"/>
         <v>79833.494999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44466</v>
       </c>
@@ -4130,26 +4283,26 @@
       <c r="D101" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="10">
         <v>805.1</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="7">
         <v>37839.699999999997</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="7">
         <f t="shared" si="4"/>
         <v>1891.9849999999999</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="18">
         <f t="shared" si="5"/>
         <v>39731.684999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44467</v>
       </c>
@@ -4162,26 +4315,26 @@
       <c r="D102" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="10">
         <v>3039.1</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="7">
         <v>142837.70000000001</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="7">
         <f t="shared" si="4"/>
         <v>7141.8850000000002</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I102" s="18">
         <f t="shared" si="5"/>
         <v>149979.58500000002</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44467</v>
       </c>
@@ -4194,26 +4347,26 @@
       <c r="D103" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="10">
         <v>281.89999999999998</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="7">
         <v>13249.3</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="7">
         <f t="shared" si="4"/>
         <v>662.46500000000003</v>
       </c>
-      <c r="I103" s="24">
+      <c r="I103" s="18">
         <f t="shared" si="5"/>
         <v>13911.764999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44468</v>
       </c>
@@ -4226,26 +4379,26 @@
       <c r="D104" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E104" s="14">
+      <c r="E104" s="10">
         <v>3255.3</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104" s="7">
         <v>152999.1</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="7">
         <f t="shared" si="4"/>
         <v>7649.9549999999999</v>
       </c>
-      <c r="I104" s="24">
+      <c r="I104" s="18">
         <f t="shared" si="5"/>
         <v>160649.05499999999</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44468</v>
       </c>
@@ -4258,26 +4411,26 @@
       <c r="D105" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="10">
         <v>4841.5</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="7">
         <v>227550.5</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="7">
         <f t="shared" si="4"/>
         <v>11377.525</v>
       </c>
-      <c r="I105" s="24">
+      <c r="I105" s="18">
         <f t="shared" si="5"/>
         <v>238928.02499999999</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44468</v>
       </c>
@@ -4290,26 +4443,26 @@
       <c r="D106" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="10">
         <v>1806.6</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="7">
         <v>84910.2</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="7">
         <f t="shared" si="4"/>
         <v>4245.51</v>
       </c>
-      <c r="I106" s="24">
+      <c r="I106" s="18">
         <f t="shared" si="5"/>
         <v>89155.709999999992</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44469</v>
       </c>
@@ -4322,26 +4475,26 @@
       <c r="D107" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="14">
+      <c r="E107" s="10">
         <v>1619.2</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="9">
         <f t="shared" si="3"/>
         <v>46.999999999999993</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="7">
         <v>76102.399999999994</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="7">
         <f t="shared" si="4"/>
         <v>3805.12</v>
       </c>
-      <c r="I107" s="24">
+      <c r="I107" s="18">
         <f t="shared" si="5"/>
         <v>79907.51999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44469</v>
       </c>
@@ -4354,26 +4507,26 @@
       <c r="D108" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="10">
         <v>1792.9</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="7">
         <v>84266.3</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="7">
         <f t="shared" si="4"/>
         <v>4213.3149999999996</v>
       </c>
-      <c r="I108" s="24">
+      <c r="I108" s="18">
         <f t="shared" si="5"/>
         <v>88479.615000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44470</v>
       </c>
@@ -4386,26 +4539,26 @@
       <c r="D109" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="10">
         <v>2037.9</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="7">
         <v>95781.3</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109" s="7">
         <f t="shared" si="4"/>
         <v>4789.0649999999996</v>
       </c>
-      <c r="I109" s="24">
+      <c r="I109" s="18">
         <f t="shared" si="5"/>
         <v>100570.36500000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44473</v>
       </c>
@@ -4418,26 +4571,26 @@
       <c r="D110" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="10">
         <v>1638.3</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="7">
         <v>77000.100000000006</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="7">
         <f t="shared" si="4"/>
         <v>3850.0050000000001</v>
       </c>
-      <c r="I110" s="24">
+      <c r="I110" s="18">
         <f t="shared" si="5"/>
         <v>80850.10500000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44474</v>
       </c>
@@ -4450,26 +4603,26 @@
       <c r="D111" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="10">
         <v>1623.3</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="7">
         <v>76295.100000000006</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111" s="7">
         <f t="shared" si="4"/>
         <v>3814.7550000000001</v>
       </c>
-      <c r="I111" s="24">
+      <c r="I111" s="18">
         <f t="shared" si="5"/>
         <v>80109.85500000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44475</v>
       </c>
@@ -4482,26 +4635,26 @@
       <c r="D112" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="10">
         <v>4866.8</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="7">
         <v>228739.6</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="7">
         <f t="shared" si="4"/>
         <v>11436.98</v>
       </c>
-      <c r="I112" s="24">
+      <c r="I112" s="18">
         <f t="shared" si="5"/>
         <v>240176.58000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44475</v>
       </c>
@@ -4514,26 +4667,26 @@
       <c r="D113" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="10">
         <v>2438.6999999999998</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="7">
         <v>114618.9</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="7">
         <f t="shared" si="4"/>
         <v>5730.9449999999997</v>
       </c>
-      <c r="I113" s="24">
+      <c r="I113" s="18">
         <f t="shared" si="5"/>
         <v>120349.845</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44475</v>
       </c>
@@ -4546,26 +4699,26 @@
       <c r="D114" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="10">
         <v>2424.1999999999998</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="7">
         <v>113937.4</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="7">
         <f t="shared" si="4"/>
         <v>5696.87</v>
       </c>
-      <c r="I114" s="24">
+      <c r="I114" s="18">
         <f t="shared" si="5"/>
         <v>119634.26999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44476</v>
       </c>
@@ -4578,26 +4731,26 @@
       <c r="D115" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="10">
         <v>3263.1</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="7">
         <v>153365.70000000001</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115" s="7">
         <f t="shared" si="4"/>
         <v>7668.2849999999999</v>
       </c>
-      <c r="I115" s="24">
+      <c r="I115" s="18">
         <f t="shared" si="5"/>
         <v>161033.98500000002</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44480</v>
       </c>
@@ -4610,26 +4763,26 @@
       <c r="D116" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="10">
         <v>1623.1</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="7">
         <v>76285.7</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H116" s="7">
         <f t="shared" si="4"/>
         <v>3814.2849999999999</v>
       </c>
-      <c r="I116" s="24">
+      <c r="I116" s="18">
         <f t="shared" si="5"/>
         <v>80099.985000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44484</v>
       </c>
@@ -4642,26 +4795,26 @@
       <c r="D117" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="10">
         <v>4817.8</v>
       </c>
-      <c r="F117" s="16">
+      <c r="F117" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="7">
         <v>226436.6</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="7">
         <f t="shared" si="4"/>
         <v>11321.83</v>
       </c>
-      <c r="I117" s="24">
+      <c r="I117" s="18">
         <f t="shared" si="5"/>
         <v>237758.43</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44484</v>
       </c>
@@ -4674,26 +4827,26 @@
       <c r="D118" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="10">
         <v>739.7</v>
       </c>
-      <c r="F118" s="16">
+      <c r="F118" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="7">
         <v>34765.9</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H118" s="7">
         <f t="shared" si="4"/>
         <v>1738.2950000000001</v>
       </c>
-      <c r="I118" s="24">
+      <c r="I118" s="18">
         <f t="shared" si="5"/>
         <v>36504.195</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44487</v>
       </c>
@@ -4706,26 +4859,26 @@
       <c r="D119" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="10">
         <v>3212</v>
       </c>
-      <c r="F119" s="16">
+      <c r="F119" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="7">
         <v>150964</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H119" s="7">
         <f t="shared" si="4"/>
         <v>7548.2</v>
       </c>
-      <c r="I119" s="24">
+      <c r="I119" s="18">
         <f t="shared" si="5"/>
         <v>158512.20000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44487</v>
       </c>
@@ -4738,26 +4891,26 @@
       <c r="D120" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="10">
         <v>1618.3</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="7">
         <v>76060.100000000006</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="7">
         <f t="shared" si="4"/>
         <v>3803.0050000000001</v>
       </c>
-      <c r="I120" s="24">
+      <c r="I120" s="18">
         <f t="shared" si="5"/>
         <v>79863.10500000001</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44487</v>
       </c>
@@ -4770,26 +4923,26 @@
       <c r="D121" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121" s="10">
         <v>165.8</v>
       </c>
-      <c r="F121" s="16">
+      <c r="F121" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="7">
         <v>7792.6</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="7">
         <f t="shared" si="4"/>
         <v>389.63</v>
       </c>
-      <c r="I121" s="24">
+      <c r="I121" s="18">
         <f t="shared" si="5"/>
         <v>8182.2300000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44490</v>
       </c>
@@ -4802,26 +4955,26 @@
       <c r="D122" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122" s="10">
         <v>2477.8000000000002</v>
       </c>
-      <c r="F122" s="16">
+      <c r="F122" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="7">
         <v>116456.6</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="7">
         <f t="shared" si="4"/>
         <v>5822.83</v>
       </c>
-      <c r="I122" s="24">
+      <c r="I122" s="18">
         <f t="shared" si="5"/>
         <v>122279.43000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44490</v>
       </c>
@@ -4834,26 +4987,26 @@
       <c r="D123" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123" s="10">
         <v>829.8</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="7">
         <v>39000.6</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H123" s="7">
         <f t="shared" si="4"/>
         <v>1950.03</v>
       </c>
-      <c r="I123" s="24">
+      <c r="I123" s="18">
         <f t="shared" si="5"/>
         <v>40950.629999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44491</v>
       </c>
@@ -4866,26 +5019,26 @@
       <c r="D124" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="10">
         <v>813.9</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="7">
         <v>38253.300000000003</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H124" s="7">
         <f t="shared" si="4"/>
         <v>1912.665</v>
       </c>
-      <c r="I124" s="24">
+      <c r="I124" s="18">
         <f t="shared" si="5"/>
         <v>40165.965000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44491</v>
       </c>
@@ -4898,26 +5051,26 @@
       <c r="D125" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125" s="10">
         <v>2435.9</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125" s="7">
         <v>114487.3</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H125" s="7">
         <f t="shared" si="4"/>
         <v>5724.3649999999998</v>
       </c>
-      <c r="I125" s="24">
+      <c r="I125" s="18">
         <f t="shared" si="5"/>
         <v>120211.66500000001</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44494</v>
       </c>
@@ -4930,26 +5083,26 @@
       <c r="D126" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="10">
         <v>4849.3</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126" s="7">
         <v>227917.1</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126" s="7">
         <f t="shared" si="4"/>
         <v>11395.855</v>
       </c>
-      <c r="I126" s="24">
+      <c r="I126" s="18">
         <f t="shared" si="5"/>
         <v>239312.95500000002</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44495</v>
       </c>
@@ -4962,26 +5115,26 @@
       <c r="D127" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E127" s="10">
         <v>2472.9</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127" s="7">
         <v>116226.3</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127" s="7">
         <f t="shared" si="4"/>
         <v>5811.3149999999996</v>
       </c>
-      <c r="I127" s="24">
+      <c r="I127" s="18">
         <f t="shared" si="5"/>
         <v>122037.61500000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44496</v>
       </c>
@@ -4994,26 +5147,26 @@
       <c r="D128" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E128" s="10">
         <v>3263.6</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="9">
         <f t="shared" si="3"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="7">
         <v>153389.20000000001</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="7">
         <f t="shared" si="4"/>
         <v>7669.46</v>
       </c>
-      <c r="I128" s="24">
+      <c r="I128" s="18">
         <f t="shared" si="5"/>
         <v>161058.66</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44497</v>
       </c>
@@ -5026,26 +5179,26 @@
       <c r="D129" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="10">
         <v>811.2</v>
       </c>
-      <c r="F129" s="16">
+      <c r="F129" s="9">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="7">
         <v>38126.400000000001</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="7">
         <f t="shared" si="4"/>
         <v>1906.32</v>
       </c>
-      <c r="I129" s="24">
+      <c r="I129" s="18">
         <f t="shared" si="5"/>
         <v>40032.720000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44519</v>
       </c>
@@ -5058,26 +5211,26 @@
       <c r="D130" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E130" s="14">
+      <c r="E130" s="10">
         <v>4852.6000000000004</v>
       </c>
-      <c r="F130" s="16">
+      <c r="F130" s="9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="7">
         <v>252335.2</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="7">
         <f t="shared" si="4"/>
         <v>12616.76</v>
       </c>
-      <c r="I130" s="24">
+      <c r="I130" s="18">
         <f t="shared" si="5"/>
         <v>264951.96000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44522</v>
       </c>
@@ -5090,26 +5243,26 @@
       <c r="D131" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="10">
         <v>833.2</v>
       </c>
-      <c r="F131" s="16">
+      <c r="F131" s="9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="7">
         <v>43326.400000000001</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H131" s="7">
         <f t="shared" si="4"/>
         <v>2166.3200000000002</v>
       </c>
-      <c r="I131" s="24">
+      <c r="I131" s="18">
         <f t="shared" si="5"/>
         <v>45492.72</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44523</v>
       </c>
@@ -5122,26 +5275,26 @@
       <c r="D132" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132" s="10">
         <v>3020.9</v>
       </c>
-      <c r="F132" s="16">
+      <c r="F132" s="9">
         <f t="shared" si="3"/>
         <v>51.999999999999993</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="7">
         <v>157086.79999999999</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="7">
         <f t="shared" si="4"/>
         <v>7854.34</v>
       </c>
-      <c r="I132" s="24">
+      <c r="I132" s="18">
         <f t="shared" si="5"/>
         <v>164941.13999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44525</v>
       </c>
@@ -5154,26 +5307,26 @@
       <c r="D133" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133" s="10">
         <v>817.1</v>
       </c>
-      <c r="F133" s="16">
+      <c r="F133" s="9">
         <f t="shared" si="3"/>
         <v>51.999999999999993</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="7">
         <v>42489.2</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H133" s="7">
         <f t="shared" si="4"/>
         <v>2124.46</v>
       </c>
-      <c r="I133" s="24">
+      <c r="I133" s="18">
         <f t="shared" si="5"/>
         <v>44613.659999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44526</v>
       </c>
@@ -5186,26 +5339,26 @@
       <c r="D134" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134" s="10">
         <v>2438.1999999999998</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G134" s="11">
+      <c r="G134" s="7">
         <v>126786.4</v>
       </c>
-      <c r="H134" s="11">
+      <c r="H134" s="7">
         <f t="shared" si="4"/>
         <v>6339.32</v>
       </c>
-      <c r="I134" s="24">
+      <c r="I134" s="18">
         <f t="shared" si="5"/>
         <v>133125.72</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44529</v>
       </c>
@@ -5218,26 +5371,26 @@
       <c r="D135" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E135" s="14">
+      <c r="E135" s="10">
         <v>1696.9</v>
       </c>
-      <c r="F135" s="16">
+      <c r="F135" s="9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G135" s="11">
+      <c r="G135" s="7">
         <v>88238.8</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H135" s="7">
         <f t="shared" si="4"/>
         <v>4411.9399999999996</v>
       </c>
-      <c r="I135" s="24">
+      <c r="I135" s="18">
         <f t="shared" si="5"/>
         <v>92650.74</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44531</v>
       </c>
@@ -5250,26 +5403,26 @@
       <c r="D136" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E136" s="14">
+      <c r="E136" s="10">
         <v>2437.3000000000002</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="9">
         <f t="shared" si="3"/>
         <v>57.999999999999993</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136" s="7">
         <v>141363.4</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H136" s="7">
         <f t="shared" si="4"/>
         <v>7068.17</v>
       </c>
-      <c r="I136" s="24">
+      <c r="I136" s="18">
         <f t="shared" si="5"/>
         <v>148431.57</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44533</v>
       </c>
@@ -5282,26 +5435,26 @@
       <c r="D137" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E137" s="14">
+      <c r="E137" s="10">
         <v>2464.8000000000002</v>
       </c>
-      <c r="F137" s="16">
+      <c r="F137" s="9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137" s="7">
         <v>128169.60000000001</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137" s="7">
         <f t="shared" si="4"/>
         <v>6408.48</v>
       </c>
-      <c r="I137" s="24">
+      <c r="I137" s="18">
         <f t="shared" si="5"/>
         <v>134578.08000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44537</v>
       </c>
@@ -5314,26 +5467,26 @@
       <c r="D138" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E138" s="14">
+      <c r="E138" s="10">
         <v>307.8</v>
       </c>
-      <c r="F138" s="16">
+      <c r="F138" s="9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="7">
         <v>16005.6</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="7">
         <f t="shared" si="4"/>
         <v>800.28</v>
       </c>
-      <c r="I138" s="24">
+      <c r="I138" s="18">
         <f t="shared" si="5"/>
         <v>16805.88</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44537</v>
       </c>
@@ -5346,26 +5499,26 @@
       <c r="D139" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E139" s="14">
+      <c r="E139" s="10">
         <v>719.9</v>
       </c>
-      <c r="F139" s="16">
+      <c r="F139" s="9">
         <f t="shared" si="3"/>
         <v>52.000000000000007</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139" s="7">
         <v>37434.800000000003</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H139" s="7">
         <f t="shared" si="4"/>
         <v>1871.74</v>
       </c>
-      <c r="I139" s="24">
+      <c r="I139" s="18">
         <f t="shared" si="5"/>
         <v>39306.54</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44537</v>
       </c>
@@ -5378,26 +5531,26 @@
       <c r="D140" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E140" s="14">
+      <c r="E140" s="10">
         <v>206.7</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="9">
         <f t="shared" ref="F140:F159" si="6">SUM(G140/E140)</f>
         <v>52</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="7">
         <v>10748.4</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H140" s="7">
         <f t="shared" ref="H140:H159" si="7">SUM(G140*5/100)</f>
         <v>537.41999999999996</v>
       </c>
-      <c r="I140" s="24">
+      <c r="I140" s="18">
         <f t="shared" ref="I140:I159" si="8">SUM(G140+H140)</f>
         <v>11285.82</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44538</v>
       </c>
@@ -5410,26 +5563,26 @@
       <c r="D141" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E141" s="14">
+      <c r="E141" s="10">
         <v>819.7</v>
       </c>
-      <c r="F141" s="16">
+      <c r="F141" s="9">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="7">
         <v>42624.4</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141" s="7">
         <f t="shared" si="7"/>
         <v>2131.2199999999998</v>
       </c>
-      <c r="I141" s="24">
+      <c r="I141" s="18">
         <f t="shared" si="8"/>
         <v>44755.62</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44544</v>
       </c>
@@ -5442,26 +5595,26 @@
       <c r="D142" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E142" s="14">
+      <c r="E142" s="10">
         <v>1636.7</v>
       </c>
-      <c r="F142" s="16">
+      <c r="F142" s="9">
         <f t="shared" si="6"/>
         <v>51.999999999999993</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142" s="7">
         <v>85108.4</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H142" s="7">
         <f t="shared" si="7"/>
         <v>4255.42</v>
       </c>
-      <c r="I142" s="24">
+      <c r="I142" s="18">
         <f t="shared" si="8"/>
         <v>89363.819999999992</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44544</v>
       </c>
@@ -5474,26 +5627,26 @@
       <c r="D143" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E143" s="14">
+      <c r="E143" s="10">
         <v>1651.7</v>
       </c>
-      <c r="F143" s="16">
+      <c r="F143" s="9">
         <f t="shared" si="6"/>
         <v>51.999999999999993</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="7">
         <v>85888.4</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143" s="7">
         <f t="shared" si="7"/>
         <v>4294.42</v>
       </c>
-      <c r="I143" s="24">
+      <c r="I143" s="18">
         <f t="shared" si="8"/>
         <v>90182.819999999992</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44547</v>
       </c>
@@ -5506,26 +5659,26 @@
       <c r="D144" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E144" s="14">
+      <c r="E144" s="10">
         <v>830.9</v>
       </c>
-      <c r="F144" s="16">
+      <c r="F144" s="9">
         <f t="shared" si="6"/>
         <v>52.000000000000007</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144" s="7">
         <v>43206.8</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H144" s="7">
         <f t="shared" si="7"/>
         <v>2160.34</v>
       </c>
-      <c r="I144" s="24">
+      <c r="I144" s="18">
         <f t="shared" si="8"/>
         <v>45367.14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44551</v>
       </c>
@@ -5538,26 +5691,26 @@
       <c r="D145" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E145" s="14">
+      <c r="E145" s="10">
         <v>824.1</v>
       </c>
-      <c r="F145" s="16">
+      <c r="F145" s="9">
         <f t="shared" si="6"/>
         <v>51.999999999999993</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="7">
         <v>42853.2</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H145" s="7">
         <f t="shared" si="7"/>
         <v>2142.66</v>
       </c>
-      <c r="I145" s="24">
+      <c r="I145" s="18">
         <f t="shared" si="8"/>
         <v>44995.86</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44559</v>
       </c>
@@ -5570,26 +5723,26 @@
       <c r="D146" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E146" s="14">
+      <c r="E146" s="10">
         <v>1625</v>
       </c>
-      <c r="F146" s="16">
+      <c r="F146" s="9">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146" s="7">
         <v>86125</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146" s="7">
         <f t="shared" si="7"/>
         <v>4306.25</v>
       </c>
-      <c r="I146" s="24">
+      <c r="I146" s="18">
         <f t="shared" si="8"/>
         <v>90431.25</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44559</v>
       </c>
@@ -5602,26 +5755,26 @@
       <c r="D147" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E147" s="10">
         <v>1636.6</v>
       </c>
-      <c r="F147" s="16">
+      <c r="F147" s="9">
         <f t="shared" si="6"/>
         <v>53.000000000000007</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="7">
         <v>86739.8</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H147" s="7">
         <f t="shared" si="7"/>
         <v>4336.99</v>
       </c>
-      <c r="I147" s="24">
+      <c r="I147" s="18">
         <f t="shared" si="8"/>
         <v>91076.790000000008</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>44559</v>
       </c>
@@ -5634,26 +5787,26 @@
       <c r="D148" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E148" s="10">
         <v>250</v>
       </c>
-      <c r="F148" s="16">
+      <c r="F148" s="9">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="G148" s="11">
+      <c r="G148" s="7">
         <v>13250</v>
       </c>
-      <c r="H148" s="11">
+      <c r="H148" s="7">
         <f t="shared" si="7"/>
         <v>662.5</v>
       </c>
-      <c r="I148" s="24">
+      <c r="I148" s="18">
         <f t="shared" si="8"/>
         <v>13912.5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>44564</v>
       </c>
@@ -5666,26 +5819,26 @@
       <c r="D149" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149" s="10">
         <v>2435.6</v>
       </c>
-      <c r="F149" s="16">
+      <c r="F149" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G149" s="11">
+      <c r="G149" s="7">
         <v>133958</v>
       </c>
-      <c r="H149" s="11">
+      <c r="H149" s="7">
         <f t="shared" si="7"/>
         <v>6697.9</v>
       </c>
-      <c r="I149" s="24">
+      <c r="I149" s="18">
         <f t="shared" si="8"/>
         <v>140655.9</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44581</v>
       </c>
@@ -5698,26 +5851,26 @@
       <c r="D150" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E150" s="14">
+      <c r="E150" s="10">
         <v>865.5</v>
       </c>
-      <c r="F150" s="16">
+      <c r="F150" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G150" s="11">
+      <c r="G150" s="7">
         <v>47602.5</v>
       </c>
-      <c r="H150" s="11">
+      <c r="H150" s="7">
         <f t="shared" si="7"/>
         <v>2380.125</v>
       </c>
-      <c r="I150" s="24">
+      <c r="I150" s="18">
         <f t="shared" si="8"/>
         <v>49982.625</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>44604</v>
       </c>
@@ -5730,26 +5883,26 @@
       <c r="D151" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="10">
         <v>260</v>
       </c>
-      <c r="F151" s="16">
+      <c r="F151" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G151" s="11">
+      <c r="G151" s="7">
         <v>14300</v>
       </c>
-      <c r="H151" s="11">
+      <c r="H151" s="7">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="I151" s="24">
+      <c r="I151" s="18">
         <f t="shared" si="8"/>
         <v>15015</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44608</v>
       </c>
@@ -5762,26 +5915,26 @@
       <c r="D152" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E152" s="14">
+      <c r="E152" s="10">
         <v>2473.5</v>
       </c>
-      <c r="F152" s="16">
+      <c r="F152" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G152" s="11">
+      <c r="G152" s="7">
         <v>136042.5</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H152" s="7">
         <f t="shared" si="7"/>
         <v>6802.125</v>
       </c>
-      <c r="I152" s="24">
+      <c r="I152" s="18">
         <f t="shared" si="8"/>
         <v>142844.625</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44617</v>
       </c>
@@ -5794,26 +5947,26 @@
       <c r="D153" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153" s="10">
         <v>486.4</v>
       </c>
-      <c r="F153" s="16">
+      <c r="F153" s="9">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="G153" s="11">
+      <c r="G153" s="7">
         <v>26265.599999999999</v>
       </c>
-      <c r="H153" s="11">
+      <c r="H153" s="7">
         <f t="shared" si="7"/>
         <v>1313.28</v>
       </c>
-      <c r="I153" s="24">
+      <c r="I153" s="18">
         <f t="shared" si="8"/>
         <v>27578.879999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44621</v>
       </c>
@@ -5826,26 +5979,26 @@
       <c r="D154" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E154" s="14">
+      <c r="E154" s="10">
         <v>2444.5</v>
       </c>
-      <c r="F154" s="16">
+      <c r="F154" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G154" s="11">
+      <c r="G154" s="7">
         <v>134447.5</v>
       </c>
-      <c r="H154" s="11">
+      <c r="H154" s="7">
         <f t="shared" si="7"/>
         <v>6722.375</v>
       </c>
-      <c r="I154" s="24">
+      <c r="I154" s="18">
         <f t="shared" si="8"/>
         <v>141169.875</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44621</v>
       </c>
@@ -5858,26 +6011,26 @@
       <c r="D155" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155" s="10">
         <v>1613.1</v>
       </c>
-      <c r="F155" s="16">
+      <c r="F155" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G155" s="11">
+      <c r="G155" s="7">
         <v>88720.5</v>
       </c>
-      <c r="H155" s="11">
+      <c r="H155" s="7">
         <f t="shared" si="7"/>
         <v>4436.0249999999996</v>
       </c>
-      <c r="I155" s="24">
+      <c r="I155" s="18">
         <f t="shared" si="8"/>
         <v>93156.524999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44629</v>
       </c>
@@ -5890,26 +6043,26 @@
       <c r="D156" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E156" s="10">
         <v>167.5</v>
       </c>
-      <c r="F156" s="16">
+      <c r="F156" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G156" s="11">
+      <c r="G156" s="7">
         <v>9212.5</v>
       </c>
-      <c r="H156" s="11">
+      <c r="H156" s="7">
         <f t="shared" si="7"/>
         <v>460.625</v>
       </c>
-      <c r="I156" s="24">
+      <c r="I156" s="18">
         <f t="shared" si="8"/>
         <v>9673.125</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44635</v>
       </c>
@@ -5922,26 +6075,26 @@
       <c r="D157" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="10">
         <v>415.7</v>
       </c>
-      <c r="F157" s="16">
+      <c r="F157" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G157" s="11">
+      <c r="G157" s="7">
         <v>22863.5</v>
       </c>
-      <c r="H157" s="11">
+      <c r="H157" s="7">
         <f t="shared" si="7"/>
         <v>1143.175</v>
       </c>
-      <c r="I157" s="24">
+      <c r="I157" s="18">
         <f t="shared" si="8"/>
         <v>24006.674999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44636</v>
       </c>
@@ -5954,26 +6107,26 @@
       <c r="D158" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E158" s="14">
+      <c r="E158" s="10">
         <v>1620.7</v>
       </c>
-      <c r="F158" s="16">
+      <c r="F158" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G158" s="11">
+      <c r="G158" s="7">
         <v>89138.5</v>
       </c>
-      <c r="H158" s="11">
+      <c r="H158" s="7">
         <f t="shared" si="7"/>
         <v>4456.9250000000002</v>
       </c>
-      <c r="I158" s="24">
+      <c r="I158" s="18">
         <f t="shared" si="8"/>
         <v>93595.425000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44644</v>
       </c>
@@ -5986,47 +6139,47 @@
       <c r="D159" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="10">
         <v>2418.5</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="9">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G159" s="11">
+      <c r="G159" s="7">
         <v>133017.5</v>
       </c>
-      <c r="H159" s="11">
+      <c r="H159" s="7">
         <f t="shared" si="7"/>
         <v>6650.875</v>
       </c>
-      <c r="I159" s="24">
+      <c r="I159" s="18">
         <f t="shared" si="8"/>
         <v>139668.375</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="17" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D160" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="27">
+      <c r="E160" s="21">
         <v>305114.3</v>
       </c>
-      <c r="F160" s="27"/>
-      <c r="G160" s="28">
+      <c r="F160" s="21"/>
+      <c r="G160" s="22">
         <v>14480349.199999999</v>
       </c>
-      <c r="H160" s="28"/>
-      <c r="I160" s="25"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6042,4 +6195,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82142B53-AD9A-4320-8532-A7F97E03A6FA}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="29">
+        <v>21031.58</v>
+      </c>
+      <c r="C2" s="23">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="29">
+        <v>33973.089999999997</v>
+      </c>
+      <c r="C3" s="23">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1608.88</v>
+      </c>
+      <c r="C4" s="23">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1405.56</v>
+      </c>
+      <c r="C5" s="23">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2393.92</v>
+      </c>
+      <c r="C6" s="23">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="29">
+        <v>23254.67</v>
+      </c>
+      <c r="C7" s="23">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="29">
+        <v>10081.83</v>
+      </c>
+      <c r="C8" s="23">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2250.31</v>
+      </c>
+      <c r="C9" s="23">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="29">
+        <v>32584.23</v>
+      </c>
+      <c r="C10" s="23">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2504.69</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="29">
+        <v>24501.29</v>
+      </c>
+      <c r="C12" s="23">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="29">
+        <v>23331.06</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="29">
+        <v>48032.09</v>
+      </c>
+      <c r="C14" s="23">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="29">
+        <v>27376.06</v>
+      </c>
+      <c r="C15" s="23">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="29">
+        <v>8443.73</v>
+      </c>
+      <c r="C16" s="23">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="29">
+        <v>7361.72</v>
+      </c>
+      <c r="C17" s="23">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="29">
+        <v>47383.97</v>
+      </c>
+      <c r="C18" s="23">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="29">
+        <v>32969.800000000003</v>
+      </c>
+      <c r="C19" s="23">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="29">
+        <v>49020.75</v>
+      </c>
+      <c r="C20" s="23">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="29">
+        <v>47276.93</v>
+      </c>
+      <c r="C21" s="23">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="29">
+        <v>39711.94</v>
+      </c>
+      <c r="C22" s="23">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="29">
+        <v>18243.03</v>
+      </c>
+      <c r="C23" s="23">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="29">
+        <v>49473.21</v>
+      </c>
+      <c r="C24" s="23">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="29">
+        <v>13301.69</v>
+      </c>
+      <c r="C25" s="23">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="29">
+        <v>27097.39</v>
+      </c>
+      <c r="C26" s="23">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="29">
+        <v>19696.02</v>
+      </c>
+      <c r="C27" s="23">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="29">
+        <v>41863.69</v>
+      </c>
+      <c r="C28" s="23">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="29">
+        <v>39101.1</v>
+      </c>
+      <c r="C29" s="23">
+        <v>44519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="29">
+        <v>39229.31</v>
+      </c>
+      <c r="C30" s="23">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="29">
+        <v>48608.85</v>
+      </c>
+      <c r="C31" s="23">
+        <v>44306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Data/raw/GST SALES OF POPLIN.xlsx
+++ b/Data/raw/GST SALES OF POPLIN.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IITM\BDM\Data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179E273A-AD52-4693-918C-E58C04A2CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A470BF4-CCF8-46C4-99DF-F834DCEDE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COLOUR POPLIN CLOTH" sheetId="1" r:id="rId1"/>
-    <sheet name="Debt Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="186">
   <si>
     <t>R.G. NAGAPPA MUDALIAR &amp; SONS</t>
   </si>
@@ -592,115 +591,18 @@
   </si>
   <si>
     <t>GST</t>
-  </si>
-  <si>
-    <t>WHR</t>
-  </si>
-  <si>
-    <t>SSB</t>
-  </si>
-  <si>
-    <t>IRTC</t>
-  </si>
-  <si>
-    <t>EFII</t>
-  </si>
-  <si>
-    <t>RICK</t>
-  </si>
-  <si>
-    <t>AER</t>
-  </si>
-  <si>
-    <t>TWIN</t>
-  </si>
-  <si>
-    <t>FYX</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>PLOW</t>
-  </si>
-  <si>
-    <t>MHK</t>
-  </si>
-  <si>
-    <t>MMDMR</t>
-  </si>
-  <si>
-    <t>VUSE</t>
-  </si>
-  <si>
-    <t>NLS</t>
-  </si>
-  <si>
-    <t>VEAC</t>
-  </si>
-  <si>
-    <t>YEXT</t>
-  </si>
-  <si>
-    <t>MEDP</t>
-  </si>
-  <si>
-    <t>TRK</t>
-  </si>
-  <si>
-    <t>FLIR</t>
-  </si>
-  <si>
-    <t>PERY</t>
-  </si>
-  <si>
-    <t>AGFSW</t>
-  </si>
-  <si>
-    <t>ORIG</t>
-  </si>
-  <si>
-    <t>IBKCO</t>
-  </si>
-  <si>
-    <t>SQNS</t>
-  </si>
-  <si>
-    <t>WCST</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>BWP</t>
-  </si>
-  <si>
-    <t>MEOH</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>TRCO</t>
-  </si>
-  <si>
-    <t>Date of Return</t>
-  </si>
-  <si>
-    <t>Returned Money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;&quot;0"/>
     <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="[$₹-4009]\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -807,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -869,7 +771,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -885,7 +786,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1227,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,11 +1145,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="1"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1257,11 +1157,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1269,11 +1169,11 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="1"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1281,11 +1181,11 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="1"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1293,11 +1193,11 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="1"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1305,11 +1205,11 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1317,11 +1217,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1341,11 +1241,11 @@
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="15" t="s">
         <v>184</v>
       </c>
@@ -6195,367 +6095,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82142B53-AD9A-4320-8532-A7F97E03A6FA}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="29">
-        <v>21031.58</v>
-      </c>
-      <c r="C2" s="23">
-        <v>44495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="29">
-        <v>33973.089999999997</v>
-      </c>
-      <c r="C3" s="23">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1608.88</v>
-      </c>
-      <c r="C4" s="23">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1405.56</v>
-      </c>
-      <c r="C5" s="23">
-        <v>44460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="29">
-        <v>2393.92</v>
-      </c>
-      <c r="C6" s="23">
-        <v>44369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="29">
-        <v>23254.67</v>
-      </c>
-      <c r="C7" s="23">
-        <v>44521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="29">
-        <v>10081.83</v>
-      </c>
-      <c r="C8" s="23">
-        <v>44424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="29">
-        <v>2250.31</v>
-      </c>
-      <c r="C9" s="23">
-        <v>44441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="29">
-        <v>32584.23</v>
-      </c>
-      <c r="C10" s="23">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="29">
-        <v>2504.69</v>
-      </c>
-      <c r="C11" s="23">
-        <v>44632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="29">
-        <v>24501.29</v>
-      </c>
-      <c r="C12" s="23">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="29">
-        <v>23331.06</v>
-      </c>
-      <c r="C13" s="23">
-        <v>44633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="29">
-        <v>48032.09</v>
-      </c>
-      <c r="C14" s="23">
-        <v>44334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="29">
-        <v>27376.06</v>
-      </c>
-      <c r="C15" s="23">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="29">
-        <v>8443.73</v>
-      </c>
-      <c r="C16" s="23">
-        <v>44594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="29">
-        <v>7361.72</v>
-      </c>
-      <c r="C17" s="23">
-        <v>44296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="29">
-        <v>47383.97</v>
-      </c>
-      <c r="C18" s="23">
-        <v>44509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="29">
-        <v>32969.800000000003</v>
-      </c>
-      <c r="C19" s="23">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="29">
-        <v>49020.75</v>
-      </c>
-      <c r="C20" s="23">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" s="29">
-        <v>47276.93</v>
-      </c>
-      <c r="C21" s="23">
-        <v>44614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="29">
-        <v>39711.94</v>
-      </c>
-      <c r="C22" s="23">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="29">
-        <v>18243.03</v>
-      </c>
-      <c r="C23" s="23">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="29">
-        <v>49473.21</v>
-      </c>
-      <c r="C24" s="23">
-        <v>44560</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="29">
-        <v>13301.69</v>
-      </c>
-      <c r="C25" s="23">
-        <v>44582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="29">
-        <v>27097.39</v>
-      </c>
-      <c r="C26" s="23">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="29">
-        <v>19696.02</v>
-      </c>
-      <c r="C27" s="23">
-        <v>44458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="29">
-        <v>41863.69</v>
-      </c>
-      <c r="C28" s="23">
-        <v>44613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="29">
-        <v>39101.1</v>
-      </c>
-      <c r="C29" s="23">
-        <v>44519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="29">
-        <v>39229.31</v>
-      </c>
-      <c r="C30" s="23">
-        <v>44352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="29">
-        <v>48608.85</v>
-      </c>
-      <c r="C31" s="23">
-        <v>44306</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>